--- a/CS162-Final Project/19CLC5-course.xlsx
+++ b/CS162-Final Project/19CLC5-course.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\ktlt-19CLC9-noname\CS162-Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2782E3-9223-4901-831E-EE0D56758A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C043DA9-C95A-4D5F-AFE4-DD687F76EB1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -917,7 +917,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1013,7 @@
         <v>43927</v>
       </c>
       <c r="J2" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -1063,7 +1063,7 @@
         <v>43927</v>
       </c>
       <c r="J3" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="K3">
         <v>6</v>
